--- a/_posts/study/소방설비/소방전기 실기 기출분석.xlsx
+++ b/_posts/study/소방설비/소방전기 실기 기출분석.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Documents\1. 학습\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Documents\1. 학습\4. 공학\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="기출분석" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="사양" sheetId="5" r:id="rId3"/>
     <sheet name="설치" sheetId="3" r:id="rId4"/>
@@ -1511,13 +1511,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1540,6 +1534,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1547,10 +1547,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1605,10 +1605,10 @@
   <tableColumns count="33">
     <tableColumn id="1" name="대분류"/>
     <tableColumn id="2" name="소분류"/>
-    <tableColumn id="37" name="비중" dataDxfId="0">
+    <tableColumn id="37" name="비중" dataDxfId="1">
       <calculatedColumnFormula>ROUND(표1[[#This Row],[계]]/$E$2,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="계" dataDxfId="1">
+    <tableColumn id="36" name="계" dataDxfId="0">
       <calculatedColumnFormula>SUM(표1[[#This Row],[21-1]:[13-4]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="21-1"/>
@@ -1926,7 +1926,7 @@
   <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="6" sqref="E3 E7 E9 E13 E17 E19 E26"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2058,119 +2058,119 @@
         <v>243</v>
       </c>
       <c r="F2" s="5">
-        <f>SUBTOTAL(9,F3:F29)</f>
+        <f t="shared" ref="F2:AH2" si="0">SUBTOTAL(9,F3:F29)</f>
         <v>18</v>
       </c>
       <c r="G2" s="5">
-        <f>SUBTOTAL(9,G3:G29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H2" s="5">
-        <f>SUBTOTAL(9,H3:H29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I2" s="5">
-        <f>SUBTOTAL(9,I3:I29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J2" s="5">
-        <f>SUBTOTAL(9,J3:J29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K2" s="5">
-        <f>SUBTOTAL(9,K3:K29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L2" s="5">
-        <f>SUBTOTAL(9,L3:L29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="M2" s="5">
-        <f>SUBTOTAL(9,M3:M29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="N2" s="5">
-        <f>SUBTOTAL(9,N3:N29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="O2" s="5">
-        <f>SUBTOTAL(9,O3:O29)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="P2" s="5">
-        <f>SUBTOTAL(9,P3:P29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="Q2" s="5">
-        <f>SUBTOTAL(9,Q3:Q29)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R2" s="5">
-        <f>SUBTOTAL(9,R3:R29)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="S2" s="5">
-        <f>SUBTOTAL(9,S3:S29)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T2" s="5">
-        <f>SUBTOTAL(9,T3:T29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2" s="5">
-        <f>SUBTOTAL(9,U3:U29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2" s="5">
-        <f>SUBTOTAL(9,V3:V29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2" s="5">
-        <f>SUBTOTAL(9,W3:W29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2" s="5">
-        <f>SUBTOTAL(9,X3:X29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <f>SUBTOTAL(9,Y3:Y29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2" s="5">
-        <f>SUBTOTAL(9,Z3:Z29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2" s="5">
-        <f>SUBTOTAL(9,AA3:AA29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <f>SUBTOTAL(9,AB3:AB29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2" s="5">
-        <f>SUBTOTAL(9,AC3:AC29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2" s="5">
-        <f>SUBTOTAL(9,AD3:AD29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2" s="5">
-        <f>SUBTOTAL(9,AE3:AE29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2" s="5">
-        <f>SUBTOTAL(9,AF3:AF29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2" s="5">
-        <f>SUBTOTAL(9,AG3:AG29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH2" s="5">
-        <f>SUBTOTAL(9,AH3:AH29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2" s="5"/>
@@ -2200,115 +2200,115 @@
         <v>5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:AH3" si="0">SUBTOTAL(9,G4:G6)</f>
+        <f t="shared" ref="G3:AH3" si="1">SUBTOTAL(9,G4:G6)</f>
         <v>6</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3" si="1">SUBTOTAL(9,L4:L6)</f>
+        <f t="shared" ref="L3" si="2">SUBTOTAL(9,L4:L6)</f>
         <v>7</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3" si="2">SUBTOTAL(9,M4:M6)</f>
+        <f t="shared" ref="M3" si="3">SUBTOTAL(9,M4:M6)</f>
         <v>6</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI3" s="5"/>
@@ -2734,115 +2734,115 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:AH7" si="3">SUBTOTAL(9,G8)</f>
+        <f t="shared" ref="G7:AH7" si="4">SUBTOTAL(9,G8)</f>
         <v>4</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" ref="L7" si="4">SUBTOTAL(9,L8)</f>
+        <f t="shared" ref="L7" si="5">SUBTOTAL(9,L8)</f>
         <v>0</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" ref="M7" si="5">SUBTOTAL(9,M8)</f>
+        <f t="shared" ref="M7" si="6">SUBTOTAL(9,M8)</f>
         <v>2</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI7" s="5"/>
@@ -3004,115 +3004,115 @@
         <v>2</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:AH9" si="6">SUBTOTAL(9,G10:G12)</f>
+        <f t="shared" ref="G9:AH9" si="7">SUBTOTAL(9,G10:G12)</f>
         <v>2</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" ref="L9" si="7">SUBTOTAL(9,L10:L12)</f>
+        <f t="shared" ref="L9" si="8">SUBTOTAL(9,L10:L12)</f>
         <v>2</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" ref="M9" si="8">SUBTOTAL(9,M10:M12)</f>
+        <f t="shared" ref="M9" si="9">SUBTOTAL(9,M10:M12)</f>
         <v>3</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI9" s="5"/>
@@ -3538,115 +3538,115 @@
         <v>2</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" ref="G13:AH13" si="9">SUBTOTAL(9,G14:G16)</f>
+        <f t="shared" ref="G13:AH13" si="10">SUBTOTAL(9,G14:G16)</f>
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" ref="L13" si="10">SUBTOTAL(9,L14:L16)</f>
+        <f t="shared" ref="L13" si="11">SUBTOTAL(9,L14:L16)</f>
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13" si="11">SUBTOTAL(9,M14:M16)</f>
+        <f t="shared" ref="M13" si="12">SUBTOTAL(9,M14:M16)</f>
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI13" s="5"/>
@@ -4072,115 +4072,115 @@
         <v>1</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:AH17" si="12">SUBTOTAL(9,G18)</f>
+        <f t="shared" ref="G17:AH17" si="13">SUBTOTAL(9,G18)</f>
         <v>1</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" ref="L17" si="13">SUBTOTAL(9,L18)</f>
+        <f t="shared" ref="L17" si="14">SUBTOTAL(9,L18)</f>
         <v>2</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" ref="M17" si="14">SUBTOTAL(9,M18)</f>
+        <f t="shared" ref="M17" si="15">SUBTOTAL(9,M18)</f>
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI17" s="5"/>
@@ -4338,119 +4338,119 @@
         <v>62</v>
       </c>
       <c r="F19" s="5">
-        <f>SUBTOTAL(9,F20:F25)</f>
+        <f t="shared" ref="F19:AH19" si="16">SUBTOTAL(9,F20:F25)</f>
         <v>5</v>
       </c>
       <c r="G19" s="5">
-        <f>SUBTOTAL(9,G20:G25)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="H19" s="5">
-        <f>SUBTOTAL(9,H20:H25)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I19" s="5">
-        <f>SUBTOTAL(9,I20:I25)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J19" s="5">
-        <f>SUBTOTAL(9,J20:J25)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K19" s="5">
-        <f>SUBTOTAL(9,K20:K25)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="L19" s="5">
-        <f>SUBTOTAL(9,L20:L25)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="M19" s="5">
-        <f>SUBTOTAL(9,M20:M25)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="N19" s="5">
-        <f>SUBTOTAL(9,N20:N25)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O19" s="5">
-        <f>SUBTOTAL(9,O20:O25)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="P19" s="5">
-        <f>SUBTOTAL(9,P20:P25)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="Q19" s="5">
-        <f>SUBTOTAL(9,Q20:Q25)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="R19" s="5">
-        <f>SUBTOTAL(9,R20:R25)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="S19" s="5">
-        <f>SUBTOTAL(9,S20:S25)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="T19" s="5">
-        <f>SUBTOTAL(9,T20:T25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U19" s="5">
-        <f>SUBTOTAL(9,U20:U25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V19" s="5">
-        <f>SUBTOTAL(9,V20:V25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W19" s="5">
-        <f>SUBTOTAL(9,W20:W25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X19" s="5">
-        <f>SUBTOTAL(9,X20:X25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y19" s="5">
-        <f>SUBTOTAL(9,Y20:Y25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <f>SUBTOTAL(9,Z20:Z25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA19" s="5">
-        <f>SUBTOTAL(9,AA20:AA25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB19" s="5">
-        <f>SUBTOTAL(9,AB20:AB25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC19" s="5">
-        <f>SUBTOTAL(9,AC20:AC25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD19" s="5">
-        <f>SUBTOTAL(9,AD20:AD25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE19" s="5">
-        <f>SUBTOTAL(9,AE20:AE25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF19" s="5">
-        <f>SUBTOTAL(9,AF20:AF25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG19" s="5">
-        <f>SUBTOTAL(9,AG20:AG25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH19" s="5">
-        <f>SUBTOTAL(9,AH20:AH25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI19" s="5"/>
@@ -5260,115 +5260,115 @@
         <v>3</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:AH26" si="15">SUBTOTAL(9,G27:G29)</f>
+        <f t="shared" ref="G26:AH26" si="17">SUBTOTAL(9,G27:G29)</f>
         <v>1</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" ref="L26" si="16">SUBTOTAL(9,L27:L29)</f>
+        <f t="shared" ref="L26" si="18">SUBTOTAL(9,L27:L29)</f>
         <v>4</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" ref="M26" si="17">SUBTOTAL(9,M27:M29)</f>
+        <f t="shared" ref="M26" si="19">SUBTOTAL(9,M27:M29)</f>
         <v>1</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AH26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI26" s="5"/>
@@ -6805,7 +6805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6844,7 +6844,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>346</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -6900,8 +6900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6913,25 +6913,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="19" t="s">
         <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6940,24 +6940,24 @@
       <c r="D5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -6966,65 +6966,65 @@
       <c r="D7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F11" t="s">
@@ -7033,9 +7033,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="1" t="s">
         <v>256</v>
       </c>
@@ -7044,11 +7044,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1" t="s">
         <v>257</v>
       </c>
@@ -7057,7 +7057,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -7068,7 +7068,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>249</v>
       </c>
@@ -7080,10 +7080,10 @@
       <c r="C17" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7091,10 +7091,10 @@
       <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
@@ -7108,7 +7108,7 @@
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
       </c>
     </row>
     <row r="30" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>279</v>
       </c>
       <c r="D30" t="s">
@@ -7149,7 +7149,7 @@
       <c r="C32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7162,7 +7162,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>284</v>
       </c>
       <c r="E34" t="s">
@@ -7192,12 +7192,12 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="19" t="s">
         <v>259</v>
       </c>
       <c r="D43" t="s">
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="10"/>
+      <c r="C44" s="19"/>
       <c r="D44" t="s">
         <v>264</v>
       </c>
@@ -7336,13 +7336,13 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7369,21 +7369,21 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -7394,7 +7394,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -7405,21 +7405,21 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -7428,7 +7428,7 @@
       <c r="D21" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>330</v>
       </c>
     </row>
